--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Boidin/Jacques_Boidin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Boidin/Jacques_Boidin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Boidin, né le 1er aout 1922 à Seclin (Nord) et décédé le 24 juin 2013 à Villeurbanne[1], est un enseignant-chercheur spécialisé dans la mycologie[2].
-Il est nommé président de l'université Claude Bernard Lyon 1 du 26 janvier 1971[3] à 1977. Il a été membre de l'Académie des sciences, belles-lettres et arts de Lyon et de la Société linnéenne de Lyon[4].
-Sa collection de champignons est conservée à l'herbier de l'Université Lyon 1[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Boidin, né le 1er aout 1922 à Seclin (Nord) et décédé le 24 juin 2013 à Villeurbanne, est un enseignant-chercheur spécialisé dans la mycologie.
+Il est nommé président de l'université Claude Bernard Lyon 1 du 26 janvier 1971 à 1977. Il a été membre de l'Académie des sciences, belles-lettres et arts de Lyon et de la Société linnéenne de Lyon.
+Sa collection de champignons est conservée à l'herbier de l'Université Lyon 1.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jacques Boidin, Essai biotaxonomique sur les Hydnés résupinés et les Corticiés : étude spéciale du comportement nucléaire et des mycéliums, Paris, Laboratoire de cryptogamie du Museum national d'histoire naturelle, coll. « Revue de mycologie », 1958, 387 p. (OCLC 3590606)
 Jacques Boidin et Paule Lanquetin, Le genre Scytinostroma Donk : (Basidiomycètes, Lachnocladiaceae), Berlin, J. Cramer, coll. « Bibliotheca mycologica », 1987, 130 p. (ISBN 978-3-443-59015-4)
